--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 26.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 26.12.20.xlsx
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AV32" sqref="AV32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5314,7 +5314,7 @@
       <c r="K33" s="160"/>
       <c r="L33" s="149"/>
       <c r="M33" s="149">
-        <v>198883.60999999996</v>
+        <v>198883</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -5346,7 +5346,7 @@
       <c r="K34" s="161"/>
       <c r="L34" s="45"/>
       <c r="M34" s="128">
-        <v>234687.68250000002</v>
+        <v>254022</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
@@ -5379,7 +5379,7 @@
       <c r="L35" s="148"/>
       <c r="M35" s="129">
         <f>M33+M34</f>
-        <v>433571.29249999998</v>
+        <v>452905</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -5444,7 +5444,7 @@
       <c r="L37" s="132"/>
       <c r="M37" s="130">
         <f>M35-M36</f>
-        <v>385825.29249999998</v>
+        <v>405159</v>
       </c>
       <c r="O37" s="23"/>
       <c r="AR37" s="9">
@@ -5473,7 +5473,7 @@
       <c r="K38" s="162"/>
       <c r="L38" s="148"/>
       <c r="M38" s="148">
-        <v>380000</v>
+        <v>405000</v>
       </c>
       <c r="AR38" s="19">
         <v>10148</v>
@@ -5502,7 +5502,7 @@
       <c r="L39" s="46"/>
       <c r="M39" s="129">
         <f>M37-M38</f>
-        <v>5825.2924999999814</v>
+        <v>159</v>
       </c>
       <c r="AR39" s="71">
         <f>SUM(AR33:AR38)</f>
@@ -5532,7 +5532,7 @@
       <c r="L40" s="147"/>
       <c r="M40" s="131">
         <f>M36+M39</f>
-        <v>53571.292499999981</v>
+        <v>47905</v>
       </c>
       <c r="AO40" s="155"/>
     </row>
